--- a/영어.xlsx
+++ b/영어.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Documents/stock/gitgit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C615086-3D23-2045-B467-A6B7B2CD1258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A870701-7D02-184F-9880-3D788A64130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>unit 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,10 +1506,6 @@
   </si>
   <si>
     <t>No worries. It's not your fault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1876,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2626,7 +2622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:6">
       <c r="B145" t="s">
         <v>158</v>
       </c>
@@ -2634,20 +2630,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:6">
       <c r="C146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:6">
       <c r="C147" t="s">
         <v>161</v>
       </c>
-      <c r="G147" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -2655,27 +2648,27 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:6">
       <c r="B149" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:6">
       <c r="B150" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:6">
       <c r="C151" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:6">
       <c r="C152" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -2683,17 +2676,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:6">
       <c r="B154" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:6">
       <c r="B155" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -2701,22 +2694,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:6">
       <c r="B157" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:6">
       <c r="B158" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:6">
       <c r="C159" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:6">
       <c r="C160" t="s">
         <v>177</v>
       </c>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A870701-7D02-184F-9880-3D788A64130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD6A76-6DBF-9545-B9FF-FC28C86786EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD6A76-6DBF-9545-B9FF-FC28C86786EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05426AB-0B0C-BE46-82C1-8EDEBB77D2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05426AB-0B0C-BE46-82C1-8EDEBB77D2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51A413-F6EA-6744-8548-44D2D19F9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51A413-F6EA-6744-8548-44D2D19F9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D718A1-BA41-924B-91BC-ADBB9BE12C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D718A1-BA41-924B-91BC-ADBB9BE12C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C986D98-424F-2B4D-ACE2-27B009E0F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C986D98-424F-2B4D-ACE2-27B009E0F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3E29B-5FAF-FF47-B8E1-566F8FCC3242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/영어.xlsx
+++ b/영어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3E29B-5FAF-FF47-B8E1-566F8FCC3242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847315A0-7351-224E-A325-81FD5DD55954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{8BBADC2B-7D2E-FE43-B953-DD5B832D00DD}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F39A2-44EE-494A-8CC9-BD60B2FB04B9}">
   <dimension ref="A2:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
